--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna4-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna4-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efna4</t>
   </si>
   <si>
     <t>Epha1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.140802333333333</v>
+        <v>1.974568</v>
       </c>
       <c r="H2">
-        <v>3.422407</v>
+        <v>5.923704</v>
       </c>
       <c r="I2">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J2">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.497699333333333</v>
+        <v>2.655411666666667</v>
       </c>
       <c r="N2">
-        <v>13.493098</v>
+        <v>7.966235</v>
       </c>
       <c r="O2">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118981</v>
       </c>
       <c r="P2">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118982</v>
       </c>
       <c r="Q2">
-        <v>5.130985894098444</v>
+        <v>5.243290903826667</v>
       </c>
       <c r="R2">
-        <v>46.178873046886</v>
+        <v>47.18961813444</v>
       </c>
       <c r="S2">
-        <v>0.1059576337199107</v>
+        <v>0.07520919280035633</v>
       </c>
       <c r="T2">
-        <v>0.1059576337199107</v>
+        <v>0.07520919280035636</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.140802333333333</v>
+        <v>1.974568</v>
       </c>
       <c r="H3">
-        <v>3.422407</v>
+        <v>5.923704</v>
       </c>
       <c r="I3">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J3">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>23.493119</v>
       </c>
       <c r="O3">
-        <v>0.3944590147859676</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="P3">
-        <v>0.3944590147859677</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="Q3">
-        <v>8.933668324159221</v>
+        <v>15.46292033253066</v>
       </c>
       <c r="R3">
-        <v>80.403014917433</v>
+        <v>139.166282992776</v>
       </c>
       <c r="S3">
-        <v>0.1844850825170227</v>
+        <v>0.2217984425958705</v>
       </c>
       <c r="T3">
-        <v>0.1844850825170228</v>
+        <v>0.2217984425958706</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.140802333333333</v>
+        <v>1.974568</v>
       </c>
       <c r="H4">
-        <v>3.422407</v>
+        <v>5.923704</v>
       </c>
       <c r="I4">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J4">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.804271333333333</v>
+        <v>6.127532</v>
       </c>
       <c r="N4">
-        <v>5.412813999999999</v>
+        <v>18.382596</v>
       </c>
       <c r="O4">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608144</v>
       </c>
       <c r="P4">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608145</v>
       </c>
       <c r="Q4">
-        <v>2.058316947033111</v>
+        <v>12.099228606176</v>
       </c>
       <c r="R4">
-        <v>18.52485252329799</v>
+        <v>108.893057455584</v>
       </c>
       <c r="S4">
-        <v>0.04250535816207698</v>
+        <v>0.1735500153755267</v>
       </c>
       <c r="T4">
-        <v>0.04250535816207698</v>
+        <v>0.1735500153755268</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.140802333333333</v>
+        <v>1.974568</v>
       </c>
       <c r="H5">
-        <v>3.422407</v>
+        <v>5.923704</v>
       </c>
       <c r="I5">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J5">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.498796666666667</v>
+        <v>2.108791333333333</v>
       </c>
       <c r="N5">
-        <v>7.49639</v>
+        <v>6.326373999999999</v>
       </c>
       <c r="O5">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963861</v>
       </c>
       <c r="P5">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963862</v>
       </c>
       <c r="Q5">
-        <v>2.850633067858889</v>
+        <v>4.163951885477332</v>
       </c>
       <c r="R5">
-        <v>25.65569761073</v>
+        <v>37.475566969296</v>
       </c>
       <c r="S5">
-        <v>0.05886711456787769</v>
+        <v>0.05972727165256378</v>
       </c>
       <c r="T5">
-        <v>0.05886711456787769</v>
+        <v>0.0597272716525638</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.140802333333333</v>
+        <v>1.974568</v>
       </c>
       <c r="H6">
-        <v>3.422407</v>
+        <v>5.923704</v>
       </c>
       <c r="I6">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J6">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.220799666666667</v>
+        <v>2.428579666666666</v>
       </c>
       <c r="N6">
-        <v>9.662399000000001</v>
+        <v>7.285739</v>
       </c>
       <c r="O6">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="P6">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="Q6">
-        <v>3.674295774932555</v>
+        <v>4.795395695250666</v>
       </c>
       <c r="R6">
-        <v>33.068661974393</v>
+        <v>43.158561257256</v>
       </c>
       <c r="S6">
-        <v>0.07587619493296729</v>
+        <v>0.06878463278375233</v>
       </c>
       <c r="T6">
-        <v>0.07587619493296731</v>
+        <v>0.06878463278375235</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>3.060777</v>
       </c>
       <c r="I7">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J7">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.497699333333333</v>
+        <v>2.655411666666667</v>
       </c>
       <c r="N7">
-        <v>13.493098</v>
+        <v>7.966235</v>
       </c>
       <c r="O7">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118981</v>
       </c>
       <c r="P7">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118982</v>
       </c>
       <c r="Q7">
-        <v>4.588818224127333</v>
+        <v>2.709207651621667</v>
       </c>
       <c r="R7">
-        <v>41.299364017146</v>
+        <v>24.382868864595</v>
       </c>
       <c r="S7">
-        <v>0.0947615781128098</v>
+        <v>0.0388605790417442</v>
       </c>
       <c r="T7">
-        <v>0.09476157811280982</v>
+        <v>0.0388605790417442</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>3.060777</v>
       </c>
       <c r="I8">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J8">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>23.493119</v>
       </c>
       <c r="O8">
-        <v>0.3944590147859676</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="P8">
-        <v>0.3944590147859677</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="Q8">
         <v>7.989688699273667</v>
@@ -948,10 +948,10 @@
         <v>71.907198293463</v>
       </c>
       <c r="S8">
-        <v>0.1649913927277513</v>
+        <v>0.1146032232085298</v>
       </c>
       <c r="T8">
-        <v>0.1649913927277514</v>
+        <v>0.1146032232085298</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>3.060777</v>
       </c>
       <c r="I9">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J9">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.804271333333333</v>
+        <v>6.127532</v>
       </c>
       <c r="N9">
-        <v>5.412813999999999</v>
+        <v>18.382596</v>
       </c>
       <c r="O9">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608144</v>
       </c>
       <c r="P9">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608145</v>
       </c>
       <c r="Q9">
-        <v>1.840824066275333</v>
+        <v>6.251669670788</v>
       </c>
       <c r="R9">
-        <v>16.567416596478</v>
+        <v>56.265027037092</v>
       </c>
       <c r="S9">
-        <v>0.03801401254708967</v>
+        <v>0.08967326784239364</v>
       </c>
       <c r="T9">
-        <v>0.03801401254708967</v>
+        <v>0.08967326784239366</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>3.060777</v>
       </c>
       <c r="I10">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J10">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.498796666666667</v>
+        <v>2.108791333333333</v>
       </c>
       <c r="N10">
-        <v>7.49639</v>
+        <v>6.326373999999999</v>
       </c>
       <c r="O10">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963861</v>
       </c>
       <c r="P10">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963862</v>
       </c>
       <c r="Q10">
-        <v>2.549419788336667</v>
+        <v>2.151513336955333</v>
       </c>
       <c r="R10">
-        <v>22.94477809503</v>
+        <v>19.363620032598</v>
       </c>
       <c r="S10">
-        <v>0.05264689743964553</v>
+        <v>0.03086107262397298</v>
       </c>
       <c r="T10">
-        <v>0.05264689743964553</v>
+        <v>0.03086107262397298</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>3.060777</v>
       </c>
       <c r="I11">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J11">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.220799666666667</v>
+        <v>2.428579666666666</v>
       </c>
       <c r="N11">
-        <v>9.662399000000001</v>
+        <v>7.285739</v>
       </c>
       <c r="O11">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="P11">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="Q11">
-        <v>3.286049847113667</v>
+        <v>2.477780262133666</v>
       </c>
       <c r="R11">
-        <v>29.574448624023</v>
+        <v>22.300022359203</v>
       </c>
       <c r="S11">
-        <v>0.0678587065472759</v>
+        <v>0.03554100981040834</v>
       </c>
       <c r="T11">
-        <v>0.06785870654727591</v>
+        <v>0.03554100981040835</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.06907100000000001</v>
+        <v>0.077601</v>
       </c>
       <c r="H12">
-        <v>0.207213</v>
+        <v>0.232803</v>
       </c>
       <c r="I12">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="J12">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.497699333333333</v>
+        <v>2.655411666666667</v>
       </c>
       <c r="N12">
-        <v>13.493098</v>
+        <v>7.966235</v>
       </c>
       <c r="O12">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118981</v>
       </c>
       <c r="P12">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118982</v>
       </c>
       <c r="Q12">
-        <v>0.3106605906526667</v>
+        <v>0.206062600745</v>
       </c>
       <c r="R12">
-        <v>2.795945315874</v>
+        <v>1.854563406705</v>
       </c>
       <c r="S12">
-        <v>0.006415309212493971</v>
+        <v>0.002955739468329504</v>
       </c>
       <c r="T12">
-        <v>0.006415309212493972</v>
+        <v>0.002955739468329505</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.06907100000000001</v>
+        <v>0.077601</v>
       </c>
       <c r="H13">
-        <v>0.207213</v>
+        <v>0.232803</v>
       </c>
       <c r="I13">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="J13">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>23.493119</v>
       </c>
       <c r="O13">
-        <v>0.3944590147859676</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="P13">
-        <v>0.3944590147859677</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="Q13">
-        <v>0.5408977408163334</v>
+        <v>0.607696509173</v>
       </c>
       <c r="R13">
-        <v>4.868079667347001</v>
+        <v>5.469268582557</v>
       </c>
       <c r="S13">
-        <v>0.01116983088323505</v>
+        <v>0.008716732441669341</v>
       </c>
       <c r="T13">
-        <v>0.01116983088323506</v>
+        <v>0.008716732441669343</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06907100000000001</v>
+        <v>0.077601</v>
       </c>
       <c r="H14">
-        <v>0.207213</v>
+        <v>0.232803</v>
       </c>
       <c r="I14">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="J14">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.804271333333333</v>
+        <v>6.127532</v>
       </c>
       <c r="N14">
-        <v>5.412813999999999</v>
+        <v>18.382596</v>
       </c>
       <c r="O14">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608144</v>
       </c>
       <c r="P14">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608145</v>
       </c>
       <c r="Q14">
-        <v>0.1246228252646667</v>
+        <v>0.475502610732</v>
       </c>
       <c r="R14">
-        <v>1.121605427382</v>
+        <v>4.279523496588</v>
       </c>
       <c r="S14">
-        <v>0.002573528741858715</v>
+        <v>0.006820557581788142</v>
       </c>
       <c r="T14">
-        <v>0.002573528741858715</v>
+        <v>0.006820557581788145</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06907100000000001</v>
+        <v>0.077601</v>
       </c>
       <c r="H15">
-        <v>0.207213</v>
+        <v>0.232803</v>
       </c>
       <c r="I15">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="J15">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.498796666666667</v>
+        <v>2.108791333333333</v>
       </c>
       <c r="N15">
-        <v>7.49639</v>
+        <v>6.326373999999999</v>
       </c>
       <c r="O15">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963861</v>
       </c>
       <c r="P15">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963862</v>
       </c>
       <c r="Q15">
-        <v>0.1725943845633334</v>
+        <v>0.163644316258</v>
       </c>
       <c r="R15">
-        <v>1.55334946107</v>
+        <v>1.472798846322</v>
       </c>
       <c r="S15">
-        <v>0.003564167385981165</v>
+        <v>0.002347296222520877</v>
       </c>
       <c r="T15">
-        <v>0.003564167385981165</v>
+        <v>0.002347296222520878</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06907100000000001</v>
+        <v>0.077601</v>
       </c>
       <c r="H16">
-        <v>0.207213</v>
+        <v>0.232803</v>
       </c>
       <c r="I16">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="J16">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.220799666666667</v>
+        <v>2.428579666666666</v>
       </c>
       <c r="N16">
-        <v>9.662399000000001</v>
+        <v>7.285739</v>
       </c>
       <c r="O16">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="P16">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="Q16">
-        <v>0.2224638537763333</v>
+        <v>0.188460210713</v>
       </c>
       <c r="R16">
-        <v>2.002174683987</v>
+        <v>1.696141896417</v>
       </c>
       <c r="S16">
-        <v>0.004593998896287015</v>
+        <v>0.002703252705732072</v>
       </c>
       <c r="T16">
-        <v>0.004593998896287016</v>
+        <v>0.002703252705732072</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.209088</v>
+        <v>0.1837383333333333</v>
       </c>
       <c r="H17">
-        <v>0.627264</v>
+        <v>0.551215</v>
       </c>
       <c r="I17">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="J17">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.497699333333333</v>
+        <v>2.655411666666667</v>
       </c>
       <c r="N17">
-        <v>13.493098</v>
+        <v>7.966235</v>
       </c>
       <c r="O17">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118981</v>
       </c>
       <c r="P17">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118982</v>
       </c>
       <c r="Q17">
-        <v>0.9404149582080001</v>
+        <v>0.4879009139472222</v>
       </c>
       <c r="R17">
-        <v>8.463734623872</v>
+        <v>4.391108225525</v>
       </c>
       <c r="S17">
-        <v>0.0194200774944903</v>
+        <v>0.006998397490733571</v>
       </c>
       <c r="T17">
-        <v>0.0194200774944903</v>
+        <v>0.006998397490733573</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.209088</v>
+        <v>0.1837383333333333</v>
       </c>
       <c r="H18">
-        <v>0.627264</v>
+        <v>0.551215</v>
       </c>
       <c r="I18">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="J18">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>23.493119</v>
       </c>
       <c r="O18">
-        <v>0.3944590147859676</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="P18">
-        <v>0.3944590147859677</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="Q18">
-        <v>1.637376421824</v>
+        <v>1.438862176620556</v>
       </c>
       <c r="R18">
-        <v>14.736387796416</v>
+        <v>12.949759589585</v>
       </c>
       <c r="S18">
-        <v>0.03381270865795849</v>
+        <v>0.02063888211421144</v>
       </c>
       <c r="T18">
-        <v>0.0338127086579585</v>
+        <v>0.02063888211421144</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.209088</v>
+        <v>0.1837383333333333</v>
       </c>
       <c r="H19">
-        <v>0.627264</v>
+        <v>0.551215</v>
       </c>
       <c r="I19">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="J19">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.804271333333333</v>
+        <v>6.127532</v>
       </c>
       <c r="N19">
-        <v>5.412813999999999</v>
+        <v>18.382596</v>
       </c>
       <c r="O19">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608144</v>
       </c>
       <c r="P19">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608145</v>
       </c>
       <c r="Q19">
-        <v>0.377251484544</v>
+        <v>1.125862517126667</v>
       </c>
       <c r="R19">
-        <v>3.395263360896</v>
+        <v>10.13276265414</v>
       </c>
       <c r="S19">
-        <v>0.007790447185906602</v>
+        <v>0.01614924913959593</v>
       </c>
       <c r="T19">
-        <v>0.007790447185906602</v>
+        <v>0.01614924913959593</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.209088</v>
+        <v>0.1837383333333333</v>
       </c>
       <c r="H20">
-        <v>0.627264</v>
+        <v>0.551215</v>
       </c>
       <c r="I20">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="J20">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.498796666666667</v>
+        <v>2.108791333333333</v>
       </c>
       <c r="N20">
-        <v>7.49639</v>
+        <v>6.326373999999999</v>
       </c>
       <c r="O20">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963861</v>
       </c>
       <c r="P20">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963862</v>
       </c>
       <c r="Q20">
-        <v>0.5224683974400001</v>
+        <v>0.3874658049344444</v>
       </c>
       <c r="R20">
-        <v>4.70221557696</v>
+        <v>3.48719224441</v>
       </c>
       <c r="S20">
-        <v>0.01078925497531569</v>
+        <v>0.005557767242247072</v>
       </c>
       <c r="T20">
-        <v>0.01078925497531569</v>
+        <v>0.005557767242247073</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.209088</v>
+        <v>0.1837383333333333</v>
       </c>
       <c r="H21">
-        <v>0.627264</v>
+        <v>0.551215</v>
       </c>
       <c r="I21">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="J21">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.220799666666667</v>
+        <v>2.428579666666666</v>
       </c>
       <c r="N21">
-        <v>9.662399000000001</v>
+        <v>7.285739</v>
       </c>
       <c r="O21">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="P21">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="Q21">
-        <v>0.6734305607040001</v>
+        <v>0.4462231803205555</v>
       </c>
       <c r="R21">
-        <v>6.060875046336001</v>
+        <v>4.016008622885</v>
       </c>
       <c r="S21">
-        <v>0.01390670529204528</v>
+        <v>0.00640057662568826</v>
       </c>
       <c r="T21">
-        <v>0.01390670529204528</v>
+        <v>0.006400576625688261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.119675</v>
+      </c>
+      <c r="I22">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="J22">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.655411666666667</v>
+      </c>
+      <c r="N22">
+        <v>7.966235</v>
+      </c>
+      <c r="O22">
+        <v>0.1255433399118981</v>
+      </c>
+      <c r="P22">
+        <v>0.1255433399118982</v>
+      </c>
+      <c r="Q22">
+        <v>0.1059287970694444</v>
+      </c>
+      <c r="R22">
+        <v>0.953359173625</v>
+      </c>
+      <c r="S22">
+        <v>0.001519431110734541</v>
+      </c>
+      <c r="T22">
+        <v>0.001519431110734542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.119675</v>
+      </c>
+      <c r="I23">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="J23">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.831039666666666</v>
+      </c>
+      <c r="N23">
+        <v>23.493119</v>
+      </c>
+      <c r="O23">
+        <v>0.3702382146908386</v>
+      </c>
+      <c r="P23">
+        <v>0.3702382146908386</v>
+      </c>
+      <c r="Q23">
+        <v>0.3123932240361111</v>
+      </c>
+      <c r="R23">
+        <v>2.811539016325</v>
+      </c>
+      <c r="S23">
+        <v>0.004480934330557503</v>
+      </c>
+      <c r="T23">
+        <v>0.004480934330557504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.119675</v>
+      </c>
+      <c r="I24">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="J24">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.127532</v>
+      </c>
+      <c r="N24">
+        <v>18.382596</v>
+      </c>
+      <c r="O24">
+        <v>0.2896992742608144</v>
+      </c>
+      <c r="P24">
+        <v>0.2896992742608145</v>
+      </c>
+      <c r="Q24">
+        <v>0.2444374640333333</v>
+      </c>
+      <c r="R24">
+        <v>2.1999371763</v>
+      </c>
+      <c r="S24">
+        <v>0.003506184321510015</v>
+      </c>
+      <c r="T24">
+        <v>0.003506184321510016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.119675</v>
+      </c>
+      <c r="I25">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="J25">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.108791333333333</v>
+      </c>
+      <c r="N25">
+        <v>6.326373999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.09970006175963861</v>
+      </c>
+      <c r="P25">
+        <v>0.09970006175963862</v>
+      </c>
+      <c r="Q25">
+        <v>0.08412320093888888</v>
+      </c>
+      <c r="R25">
+        <v>0.7571088084499999</v>
+      </c>
+      <c r="S25">
+        <v>0.001206654018333896</v>
+      </c>
+      <c r="T25">
+        <v>0.001206654018333896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.119675</v>
+      </c>
+      <c r="I26">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="J26">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.428579666666666</v>
+      </c>
+      <c r="N26">
+        <v>7.285739</v>
+      </c>
+      <c r="O26">
+        <v>0.1148191093768101</v>
+      </c>
+      <c r="P26">
+        <v>0.1148191093768101</v>
+      </c>
+      <c r="Q26">
+        <v>0.0968800905361111</v>
+      </c>
+      <c r="R26">
+        <v>0.8719208148249999</v>
+      </c>
+      <c r="S26">
+        <v>0.001389637451229089</v>
+      </c>
+      <c r="T26">
+        <v>0.00138963745122909</v>
       </c>
     </row>
   </sheetData>
